--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 13C/PRUEBA_TEMPERATURA_6_13C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 13C/PRUEBA_TEMPERATURA_6_13C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,160 +73,112 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 03:03:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:04:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:05:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:06:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:07:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:08:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:09:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:10:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:11:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:12:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:13:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:14:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:15:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:16:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:17:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:18:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:19:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:20:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:21:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:22:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:23:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:24:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:25:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:26:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:27:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:28:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:29:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:30:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:31:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:32:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:33:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:34:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:35:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:36:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:37:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:38:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:39:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:40:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:41:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:42:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:43:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:44:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:45:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:46:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:47:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:48:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:49:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:50:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:51:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:52:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:53:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:54:44</t>
+    <t>2023-12-11 22:12:56</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:13:56</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:14:57</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:15:58</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:16:59</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:18:00</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:19:00</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:20:01</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:21:02</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:22:03</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:23:04</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:24:04</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:25:05</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:26:06</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:27:07</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:28:08</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:29:08</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:30:09</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:31:10</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:32:11</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:33:12</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:34:12</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:35:13</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:36:14</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:37:15</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:38:16</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:39:16</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:40:17</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:41:18</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:42:19</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:43:20</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:44:20</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:45:21</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:46:22</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:47:23</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:48:24</t>
   </si>
 </sst>
 </file>
@@ -893,165 +845,117 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$53</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>25.8041958041957</c:v>
+                  <c:v>26.4597902097901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.6573426573426</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.428321678321598</c:v>
+                  <c:v>22.919580419580399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.986013986013901</c:v>
+                  <c:v>21.6083916083915</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>21.083916083916002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.5594405594405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.117132867132799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.4615384615384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.4615384615384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.937062937062901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.937062937062901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.937062937062901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.888111888111801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.756993006993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.543706293706201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.412587412587399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.281468531468501</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>17.019230769230699</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.576923076923</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.839160839160799</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>16.232517482517402</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.7080419580419</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.1835664335663</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.790209790209699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.6590909090908</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.6590909090908</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.1346153846153</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.5279720279719</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.790209790209699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.5279720279719</c:v>
+                  <c:v>17.019230769230699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>17.1503496503496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.1346153846153</c:v>
+                  <c:v>16.494755244755201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.3968531468531</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.1346153846153</c:v>
+                  <c:v>16.363636363636299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.363636363636299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.0034965034964</c:v>
+                  <c:v>16.888111888111801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.741258741258701</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>17.019230769230699</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.741258741258701</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.347902097902001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>13.347902097902001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.494755244755201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,37 +1212,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.363636363636299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>16.363636363636299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.888111888111801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>17.019230769230699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>16.494755244755201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,10 +1339,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.335982199618464</c:v>
+                  <c:v>16.37555626191984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.335982199618464</c:v>
+                  <c:v>16.37555626191984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,10 +3064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3209,17 +3113,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.8041958041957</v>
+        <v>26.4597902097901</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>2.2175925929332152E-2</v>
+        <v>9.8495370330056176E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,14 +3140,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.6573426573426</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3260,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.428321678321598</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3277,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.986013986013901</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3294,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.019230769230699</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.576923076923</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>15.839160839160799</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3345,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.232517482517402</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3362,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.7080419580419</v>
+        <v>19.117132867132799</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3379,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.1835664335663</v>
+        <v>18.4615384615384</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3396,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.790209790209699</v>
+        <v>18.4615384615384</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3413,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.6590909090908</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3430,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.6590909090908</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.1346153846153</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3464,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.3968531468531</v>
+        <v>16.888111888111801</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.5279720279719</v>
+        <v>16.756993006993</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.265734265734199</v>
+        <v>17.543706293706201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3515,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.3968531468531</v>
+        <v>17.412587412587399</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.0524475524475</v>
+        <v>17.281468531468501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.790209790209699</v>
+        <v>17.019230769230699</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3566,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.265734265734199</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.5279720279719</v>
+        <v>17.019230769230699</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.265734265734199</v>
+        <v>17.1503496503496</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3617,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.1346153846153</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>14.3968531468531</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>14.1346153846153</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3668,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>13.4790209790209</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3685,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>14.0034965034964</v>
+        <v>16.888111888111801</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13.4790209790209</v>
+        <v>16.1013986013986</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3719,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>13.741258741258701</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3736,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>13.216783216783099</v>
+        <v>17.019230769230699</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.741258741258701</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>13.216783216783099</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3787,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>13.347902097902001</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3804,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>13.4790209790209</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3821,279 +3725,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>13</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>13.347902097902001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>13</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>13.347902097902001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>13.216783216783099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>13</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>13.4790209790209</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
   </sheetData>
@@ -4106,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,45 +3764,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:44:45</v>
+        <v>2023-12-11 22:38:16</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>16.363636363636299</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>13.335982199618464</v>
+        <v>16.37555626191984</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:45:45</v>
+        <v>2023-12-11 22:39:16</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>16.363636363636299</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>13.335982199618464</v>
+        <v>16.37555626191984</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:46:44</v>
+        <v>2023-12-11 22:40:17</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>16.888111888111801</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -4179,35 +3811,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:47:44</v>
+        <v>2023-12-11 22:41:18</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>16.1013986013986</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.12376046426337556</v>
+        <v>0.31824119382004967</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:48:44</v>
+        <v>2023-12-11 22:42:19</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:49:44</v>
+        <v>2023-12-11 22:43:20</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>13.347902097902001</v>
+        <v>17.019230769230699</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -4216,36 +3848,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:50:44</v>
+        <v>2023-12-11 22:44:20</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>16.232517482517402</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>13.4790209790209</v>
+        <v>17.019230769230699</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:51:44</v>
+        <v>2023-12-11 22:45:21</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>13.347902097902001</v>
+        <v>16.232517482517402</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:52:44</v>
+        <v>2023-12-11 22:46:22</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>15.9702797202797</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -4254,25 +3886,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:53:44</v>
+        <v>2023-12-11 22:47:23</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>16.232517482517402</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>13.216783216783099</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:54:44</v>
+        <v>2023-12-11 22:48:24</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
